--- a/natmiOut/OldD0/LR-pairs_lrc2p/Ecm1-Itgb4.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Ecm1-Itgb4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.65584098289591</v>
+        <v>10.64875866666667</v>
       </c>
       <c r="H2">
-        <v>8.65584098289591</v>
+        <v>31.946276</v>
       </c>
       <c r="I2">
-        <v>0.0334894572419804</v>
+        <v>0.04005553530491663</v>
       </c>
       <c r="J2">
-        <v>0.0334894572419804</v>
+        <v>0.04005553530491663</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.3365749342233</v>
+        <v>3.106744</v>
       </c>
       <c r="N2">
-        <v>2.3365749342233</v>
+        <v>9.320231999999999</v>
       </c>
       <c r="O2">
-        <v>0.1117387636666618</v>
+        <v>0.1418337845295607</v>
       </c>
       <c r="P2">
-        <v>0.1117387636666618</v>
+        <v>0.1418337845295607</v>
       </c>
       <c r="Q2">
-        <v>20.22502107525736</v>
+        <v>33.08296709511466</v>
       </c>
       <c r="R2">
-        <v>20.22502107525736</v>
+        <v>297.746703856032</v>
       </c>
       <c r="S2">
-        <v>0.003742070548086423</v>
+        <v>0.005681228163653755</v>
       </c>
       <c r="T2">
-        <v>0.003742070548086423</v>
+        <v>0.005681228163653755</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.65584098289591</v>
+        <v>10.64875866666667</v>
       </c>
       <c r="H3">
-        <v>8.65584098289591</v>
+        <v>31.946276</v>
       </c>
       <c r="I3">
-        <v>0.0334894572419804</v>
+        <v>0.04005553530491663</v>
       </c>
       <c r="J3">
-        <v>0.0334894572419804</v>
+        <v>0.04005553530491663</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.4937690500055</v>
+        <v>1.522686333333333</v>
       </c>
       <c r="N3">
-        <v>1.4937690500055</v>
+        <v>4.568059</v>
       </c>
       <c r="O3">
-        <v>0.07143443354048543</v>
+        <v>0.0695159837141737</v>
       </c>
       <c r="P3">
-        <v>0.07143443354048543</v>
+        <v>0.06951598371417368</v>
       </c>
       <c r="Q3">
-        <v>12.9298273620191</v>
+        <v>16.21471928869822</v>
       </c>
       <c r="R3">
-        <v>12.9298273620191</v>
+        <v>145.932473598284</v>
       </c>
       <c r="S3">
-        <v>0.002392300407659177</v>
+        <v>0.002784499939919094</v>
       </c>
       <c r="T3">
-        <v>0.002392300407659177</v>
+        <v>0.002784499939919093</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.65584098289591</v>
+        <v>10.64875866666667</v>
       </c>
       <c r="H4">
-        <v>8.65584098289591</v>
+        <v>31.946276</v>
       </c>
       <c r="I4">
-        <v>0.0334894572419804</v>
+        <v>0.04005553530491663</v>
       </c>
       <c r="J4">
-        <v>0.0334894572419804</v>
+        <v>0.04005553530491663</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.0807065549892</v>
+        <v>17.274688</v>
       </c>
       <c r="N4">
-        <v>17.0807065549892</v>
+        <v>51.824064</v>
       </c>
       <c r="O4">
-        <v>0.8168268027928528</v>
+        <v>0.7886502317562657</v>
       </c>
       <c r="P4">
-        <v>0.8168268027928528</v>
+        <v>0.7886502317562656</v>
       </c>
       <c r="Q4">
-        <v>147.8478798154943</v>
+        <v>183.9539835539627</v>
       </c>
       <c r="R4">
-        <v>147.8478798154943</v>
+        <v>1655.585851985664</v>
       </c>
       <c r="S4">
-        <v>0.0273550862862348</v>
+        <v>0.03158980720134378</v>
       </c>
       <c r="T4">
-        <v>0.0273550862862348</v>
+        <v>0.03158980720134378</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>234.127295395131</v>
+        <v>239.3334093333333</v>
       </c>
       <c r="H5">
-        <v>234.127295395131</v>
+        <v>718.000228</v>
       </c>
       <c r="I5">
-        <v>0.9058387352320013</v>
+        <v>0.9002577790786066</v>
       </c>
       <c r="J5">
-        <v>0.9058387352320013</v>
+        <v>0.9002577790786066</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.3365749342233</v>
+        <v>3.106744</v>
       </c>
       <c r="N5">
-        <v>2.3365749342233</v>
+        <v>9.320231999999999</v>
       </c>
       <c r="O5">
-        <v>0.1117387636666618</v>
+        <v>0.1418337845295607</v>
       </c>
       <c r="P5">
-        <v>0.1117387636666618</v>
+        <v>0.1418337845295607</v>
       </c>
       <c r="Q5">
-        <v>547.0559698377574</v>
+        <v>743.5476334458772</v>
       </c>
       <c r="R5">
-        <v>547.0559698377574</v>
+        <v>6691.928701012896</v>
       </c>
       <c r="S5">
-        <v>0.1012173003561964</v>
+        <v>0.1276869678588959</v>
       </c>
       <c r="T5">
-        <v>0.1012173003561964</v>
+        <v>0.1276869678588959</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>234.127295395131</v>
+        <v>239.3334093333333</v>
       </c>
       <c r="H6">
-        <v>234.127295395131</v>
+        <v>718.000228</v>
       </c>
       <c r="I6">
-        <v>0.9058387352320013</v>
+        <v>0.9002577790786066</v>
       </c>
       <c r="J6">
-        <v>0.9058387352320013</v>
+        <v>0.9002577790786066</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.4937690500055</v>
+        <v>1.522686333333333</v>
       </c>
       <c r="N6">
-        <v>1.4937690500055</v>
+        <v>4.568059</v>
       </c>
       <c r="O6">
-        <v>0.07143443354048543</v>
+        <v>0.0695159837141737</v>
       </c>
       <c r="P6">
-        <v>0.07143443354048543</v>
+        <v>0.06951598371417368</v>
       </c>
       <c r="Q6">
-        <v>349.7321076227419</v>
+        <v>364.4297115019391</v>
       </c>
       <c r="R6">
-        <v>349.7321076227419</v>
+        <v>3279.867403517452</v>
       </c>
       <c r="S6">
-        <v>0.06470807693032778</v>
+        <v>0.0625823051089866</v>
       </c>
       <c r="T6">
-        <v>0.06470807693032778</v>
+        <v>0.06258230510898659</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>234.127295395131</v>
+        <v>239.3334093333333</v>
       </c>
       <c r="H7">
-        <v>234.127295395131</v>
+        <v>718.000228</v>
       </c>
       <c r="I7">
-        <v>0.9058387352320013</v>
+        <v>0.9002577790786066</v>
       </c>
       <c r="J7">
-        <v>0.9058387352320013</v>
+        <v>0.9002577790786066</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.0807065549892</v>
+        <v>17.274688</v>
       </c>
       <c r="N7">
-        <v>17.0807065549892</v>
+        <v>51.824064</v>
       </c>
       <c r="O7">
-        <v>0.8168268027928528</v>
+        <v>0.7886502317562657</v>
       </c>
       <c r="P7">
-        <v>0.8168268027928528</v>
+        <v>0.7886502317562656</v>
       </c>
       <c r="Q7">
-        <v>3999.059629157507</v>
+        <v>4134.409974209621</v>
       </c>
       <c r="R7">
-        <v>3999.059629157507</v>
+        <v>37209.68976788659</v>
       </c>
       <c r="S7">
-        <v>0.7399133579454772</v>
+        <v>0.7099885061107242</v>
       </c>
       <c r="T7">
-        <v>0.7399133579454772</v>
+        <v>0.7099885061107241</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.6815177473753</v>
+        <v>15.86769733333333</v>
       </c>
       <c r="H8">
-        <v>15.6815177473753</v>
+        <v>47.603092</v>
       </c>
       <c r="I8">
-        <v>0.06067180752601833</v>
+        <v>0.05968668561647669</v>
       </c>
       <c r="J8">
-        <v>0.06067180752601833</v>
+        <v>0.0596866856164767</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.3365749342233</v>
+        <v>3.106744</v>
       </c>
       <c r="N8">
-        <v>2.3365749342233</v>
+        <v>9.320231999999999</v>
       </c>
       <c r="O8">
-        <v>0.1117387636666618</v>
+        <v>0.1418337845295607</v>
       </c>
       <c r="P8">
-        <v>0.1117387636666618</v>
+        <v>0.1418337845295607</v>
       </c>
       <c r="Q8">
-        <v>36.64104129909496</v>
+        <v>49.29687348414933</v>
       </c>
       <c r="R8">
-        <v>36.64104129909496</v>
+        <v>443.671861357344</v>
       </c>
       <c r="S8">
-        <v>0.006779392762378953</v>
+        <v>0.008465588507010983</v>
       </c>
       <c r="T8">
-        <v>0.006779392762378953</v>
+        <v>0.008465588507010983</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.6815177473753</v>
+        <v>15.86769733333333</v>
       </c>
       <c r="H9">
-        <v>15.6815177473753</v>
+        <v>47.603092</v>
       </c>
       <c r="I9">
-        <v>0.06067180752601833</v>
+        <v>0.05968668561647669</v>
       </c>
       <c r="J9">
-        <v>0.06067180752601833</v>
+        <v>0.0596866856164767</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.4937690500055</v>
+        <v>1.522686333333333</v>
       </c>
       <c r="N9">
-        <v>1.4937690500055</v>
+        <v>4.568059</v>
       </c>
       <c r="O9">
-        <v>0.07143443354048543</v>
+        <v>0.0695159837141737</v>
       </c>
       <c r="P9">
-        <v>0.07143443354048543</v>
+        <v>0.06951598371417368</v>
       </c>
       <c r="Q9">
-        <v>23.42456586814119</v>
+        <v>24.16152587093645</v>
       </c>
       <c r="R9">
-        <v>23.42456586814119</v>
+        <v>217.453732838428</v>
       </c>
       <c r="S9">
-        <v>0.00433405620249848</v>
+        <v>0.004149178665267999</v>
       </c>
       <c r="T9">
-        <v>0.00433405620249848</v>
+        <v>0.004149178665267999</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.6815177473753</v>
+        <v>15.86769733333333</v>
       </c>
       <c r="H10">
-        <v>15.6815177473753</v>
+        <v>47.603092</v>
       </c>
       <c r="I10">
-        <v>0.06067180752601833</v>
+        <v>0.05968668561647669</v>
       </c>
       <c r="J10">
-        <v>0.06067180752601833</v>
+        <v>0.0596866856164767</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.0807065549892</v>
+        <v>17.274688</v>
       </c>
       <c r="N10">
-        <v>17.0807065549892</v>
+        <v>51.824064</v>
       </c>
       <c r="O10">
-        <v>0.8168268027928528</v>
+        <v>0.7886502317562657</v>
       </c>
       <c r="P10">
-        <v>0.8168268027928528</v>
+        <v>0.7886502317562656</v>
       </c>
       <c r="Q10">
-        <v>267.8514029797727</v>
+        <v>274.1095207117654</v>
       </c>
       <c r="R10">
-        <v>267.8514029797727</v>
+        <v>2466.985686405888</v>
       </c>
       <c r="S10">
-        <v>0.04955835856114089</v>
+        <v>0.04707191844419771</v>
       </c>
       <c r="T10">
-        <v>0.04955835856114089</v>
+        <v>0.04707191844419771</v>
       </c>
     </row>
   </sheetData>
